--- a/output_data/charts/capacity-MarionCounty-0500000US39101.xlsx
+++ b/output_data/charts/capacity-MarionCounty-0500000US39101.xlsx
@@ -42,7 +42,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -862,46 +862,46 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>51000</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5900</c:v>
+                  <c:v>5.9</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>40000</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19000</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>31900</c:v>
+                  <c:v>31.9</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>40400</c:v>
+                  <c:v>40.4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>35600</c:v>
+                  <c:v>35.6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>42700</c:v>
+                  <c:v>42.7</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>92000</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>49960</c:v>
+                  <c:v>49.96</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>99900</c:v>
+                  <c:v>99.90000000000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>186990</c:v>
+                  <c:v>186.99</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>113180</c:v>
+                  <c:v>113.18</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>81970</c:v>
+                  <c:v>81.97</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1071,7 +1071,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3500000</c:v>
+                  <c:v>3500</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
@@ -1238,13 +1238,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2400</c:v>
+                  <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2400</c:v>
+                  <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -1265,7 +1265,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4500000</c:v>
+                  <c:v>4500</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0</c:v>
@@ -1342,14 +1342,14 @@
                   <a:rPr lang="en-US" sz="900" baseline="0">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>Watts</a:t>
+                  <a:t>Kilowatts (kW)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="[&gt;=1000]#,##0,&quot;K&quot;" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:tickLblPos val="low"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1979,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="2">
-        <v>2400</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2019,13 +2019,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="2">
-        <v>51000</v>
+        <v>51</v>
       </c>
       <c r="F13" s="2">
         <v>0</v>
       </c>
       <c r="G13" s="2">
-        <v>2400</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2042,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="2">
-        <v>5900</v>
+        <v>5.9</v>
       </c>
       <c r="F14" s="2">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="2">
-        <v>40000</v>
+        <v>40</v>
       </c>
       <c r="F15" s="2">
         <v>0</v>
@@ -2088,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="2">
-        <v>19000</v>
+        <v>19</v>
       </c>
       <c r="F16" s="2">
         <v>0</v>
@@ -2111,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="2">
-        <v>31900</v>
+        <v>31.9</v>
       </c>
       <c r="F17" s="2">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="2">
-        <v>40400</v>
+        <v>40.4</v>
       </c>
       <c r="F18" s="2">
         <v>0</v>
@@ -2157,10 +2157,10 @@
         <v>0</v>
       </c>
       <c r="E19" s="2">
-        <v>35600</v>
+        <v>35.6</v>
       </c>
       <c r="F19" s="2">
-        <v>3500000</v>
+        <v>3500</v>
       </c>
       <c r="G19" s="2">
         <v>0</v>
@@ -2180,13 +2180,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="2">
-        <v>42700</v>
+        <v>42.7</v>
       </c>
       <c r="F20" s="2">
         <v>0</v>
       </c>
       <c r="G20" s="2">
-        <v>4500000</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="2">
-        <v>92000</v>
+        <v>92</v>
       </c>
       <c r="F21" s="2">
         <v>0</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="2">
-        <v>49960</v>
+        <v>49.96</v>
       </c>
       <c r="F22" s="2">
         <v>0</v>
@@ -2249,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="2">
-        <v>99900</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F23" s="2">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="2">
-        <v>186990</v>
+        <v>186.99</v>
       </c>
       <c r="F24" s="2">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="2">
-        <v>113180</v>
+        <v>113.18</v>
       </c>
       <c r="F25" s="2">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>81970</v>
+        <v>81.97</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>

--- a/output_data/charts/capacity-MarionCounty-0500000US39101.xlsx
+++ b/output_data/charts/capacity-MarionCounty-0500000US39101.xlsx
@@ -898,10 +898,10 @@
                   <c:v>186.99</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>113.18</c:v>
+                  <c:v>126.78</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>81.97</c:v>
+                  <c:v>138.63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="2">
-        <v>113.18</v>
+        <v>126.78</v>
       </c>
       <c r="F25" s="2">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>81.97</v>
+        <v>138.63</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>
